--- a/도서대여 프로젝트/도서정보-테이블명세_MYSQL.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세_MYSQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +704,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1057,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1095,6 +1128,186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6594230" y="3143250"/>
+          <a:ext cx="4750044" cy="1753333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827484</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>241698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4625578" y="2982516"/>
+          <a:ext cx="5551885" cy="1509713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>709448</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186887</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3126827" y="3422430"/>
+          <a:ext cx="4739181" cy="1257629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2149,320 +2362,320 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+      <c r="B8" s="34">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="18"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+      <c r="B9" s="34">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+      <c r="B10" s="34">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="18"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+      <c r="B12" s="34">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="18"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="18"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+      <c r="B14" s="34">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="18"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+      <c r="B15" s="34">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+      <c r="B16" s="34">
         <v>11</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="18"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+      <c r="B17" s="34">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="18"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+      <c r="B18" s="34">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+      <c r="B19" s="34">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="18"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
+      <c r="B20" s="34">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="16"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="37">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="17"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2480,6 +2693,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2487,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3240,296 +3454,296 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+      <c r="B8" s="34">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+      <c r="B9" s="34">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="18"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+      <c r="B10" s="34">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="18"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+      <c r="B12" s="34">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="18"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="18"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+      <c r="B14" s="34">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="18"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+      <c r="B15" s="34">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+      <c r="B16" s="34">
         <v>11</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="18"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+      <c r="B17" s="34">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="18"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+      <c r="B18" s="34">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+      <c r="B19" s="34">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="18"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
+      <c r="B20" s="34">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="16"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="37">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="17"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3547,6 +3761,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3554,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4307,288 +4522,288 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+      <c r="B8" s="34">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+      <c r="B9" s="34">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="18"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+      <c r="B10" s="34">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="18"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+      <c r="B12" s="34">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="18"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="18"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+      <c r="B14" s="34">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="18"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+      <c r="B15" s="34">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+      <c r="B16" s="34">
         <v>11</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="18"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+      <c r="B17" s="34">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="18"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+      <c r="B18" s="34">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+      <c r="B19" s="34">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="18"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
+      <c r="B20" s="34">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="16"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="37">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="17"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4606,6 +4821,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5674,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H11"/>
     </sheetView>
   </sheetViews>

--- a/도서대여 프로젝트/도서정보-테이블명세_MYSQL.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세_MYSQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
@@ -1027,6 +1027,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1055,33 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,186 +1128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600807</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>163391</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6594230" y="3143250"/>
-          <a:ext cx="4750044" cy="1753333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>827484</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>232172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>194072</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>241698</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4625578" y="2982516"/>
-          <a:ext cx="5551885" cy="1509713"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>709448</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>186887</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>186887</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3126827" y="3422430"/>
-          <a:ext cx="4739181" cy="1257629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
@@ -2268,20 +2088,20 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44315</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2293,18 +2113,18 @@
       <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2313,18 +2133,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2362,320 +2182,320 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="34">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="34">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="34">
+      <c r="B11" s="24">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="34">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="34">
+      <c r="B17" s="24">
         <v>12</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="34">
+      <c r="B18" s="24">
         <v>13</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>14</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="34">
+      <c r="B20" s="24">
         <v>15</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37">
+      <c r="B21" s="27">
         <v>16</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2693,7 +2513,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3360,20 +3179,20 @@
       <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44315</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3385,18 +3204,18 @@
       <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -3405,18 +3224,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3454,296 +3273,296 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="34">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="34">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="34">
+      <c r="B11" s="24">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="34">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="34">
+      <c r="B17" s="24">
         <v>12</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="34">
+      <c r="B18" s="24">
         <v>13</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>14</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="34">
+      <c r="B20" s="24">
         <v>15</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37">
+      <c r="B21" s="27">
         <v>16</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3761,7 +3580,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3769,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
@@ -4428,20 +4246,20 @@
       <c r="C2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44315</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4453,18 +4271,18 @@
       <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -4473,18 +4291,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4522,288 +4340,288 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="34">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="34">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="34">
+      <c r="B11" s="24">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="34">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="34">
+      <c r="B17" s="24">
         <v>12</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="34">
+      <c r="B18" s="24">
         <v>13</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>14</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="34">
+      <c r="B20" s="24">
         <v>15</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37">
+      <c r="B21" s="27">
         <v>16</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4821,7 +4639,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4830,7 +4647,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5488,20 +5305,20 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44319</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -5513,18 +5330,18 @@
       <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -5533,18 +5350,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6549,20 +6366,20 @@
       <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44319</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -6574,18 +6391,18 @@
       <c r="C3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -6594,18 +6411,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
